--- a/public/orderList.xlsx
+++ b/public/orderList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16274\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FBF94E-AED0-4FF6-8EDB-E857EE5B1414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A63DB-AABA-4179-9AF1-D87C81FD5B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2048" yWindow="1763" windowWidth="16695" windowHeight="10034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>上门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +417,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -441,6 +449,9 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -455,6 +466,9 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
@@ -468,6 +482,9 @@
       </c>
       <c r="B4" t="s">
         <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>

--- a/public/orderList.xlsx
+++ b/public/orderList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16274\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A63DB-AABA-4179-9AF1-D87C81FD5B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76D20D-946F-4F6C-830F-582D8E6CD642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2048" yWindow="1763" windowWidth="16695" windowHeight="10034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配送时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,18 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男士夏季短裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男士夏季上衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男士夏季运动鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>送货上门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +72,42 @@
   </si>
   <si>
     <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线蓝牙耳机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能手表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高品质降噪耳机，支持快充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB背光，静音机械轴设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持心率监测和运动追踪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,9 +151,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -149,6 +168,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{060A94DE-9BBA-4277-913E-D0D3802E58C4}" name="表1" displayName="表1" ref="A1:G4" totalsRowShown="0">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F665A0C7-2F8D-4988-B12D-8B6C03EC3BB0}" name="用户名"/>
+    <tableColumn id="2" xr3:uid="{EAA35AEA-0ABE-4F37-BED9-571845569A78}" name="商品名称"/>
+    <tableColumn id="3" xr3:uid="{4434D5AF-93E0-4E78-B4A5-AFADF2EA08FB}" name="商品描述"/>
+    <tableColumn id="4" xr3:uid="{20EDA391-2808-41F1-9E0E-207E55C02D86}" name="数量"/>
+    <tableColumn id="5" xr3:uid="{2CBEDAD9-42FF-4C54-9D86-73756E6F8AF1}" name="商品价格"/>
+    <tableColumn id="6" xr3:uid="{9F739702-501C-465D-B35C-8885E40E5BA0}" name="支付方式"/>
+    <tableColumn id="7" xr3:uid="{BD6A37AC-F5EA-459F-B834-E0EE5D3074E9}" name="配送方式"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,18 +448,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,69 +468,96 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>199.9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>499</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>899.5</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1">
-        <v>45769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G4" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45768</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>